--- a/sheets/Pirmdiena.xlsx
+++ b/sheets/Pirmdiena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AFDCF-6C32-47A0-97E6-AA2365A0EDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E136E4C5-1F56-4C15-BC9C-F29C0624FCDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>St. nr.</t>
   </si>
@@ -75,39 +75,15 @@
     <t>22-30</t>
   </si>
   <si>
-    <t>Matemātika 1.g.</t>
-  </si>
-  <si>
-    <t>Bioloģija 2.g.</t>
-  </si>
-  <si>
     <t>23-18/22-20</t>
   </si>
   <si>
-    <t>Bioloģija 1.g.</t>
-  </si>
-  <si>
-    <t>Matemātika 2.g.</t>
-  </si>
-  <si>
     <t>22-20/23-18</t>
   </si>
   <si>
-    <t>Informāt. 1.g.</t>
-  </si>
-  <si>
-    <t>Latviešu v. 2.g.</t>
-  </si>
-  <si>
     <t>23-12/22-30</t>
   </si>
   <si>
-    <t>Angļu v. 1.g.</t>
-  </si>
-  <si>
-    <t>Angļu v.  2.g.</t>
-  </si>
-  <si>
     <t>21-16/21-18</t>
   </si>
   <si>
@@ -139,6 +115,21 @@
   </si>
   <si>
     <t>15:25 - 16:05</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Matemātika 1.g. / Bioloģija 2.g.</t>
+  </si>
+  <si>
+    <t>Bioloģija 1.g. / Matemātika 2.g.</t>
+  </si>
+  <si>
+    <t>Informāt. 1.g. / Latviešu v. 2.g.</t>
+  </si>
+  <si>
+    <t>Angļu v. 1.g. / Angļu v.  2.g.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +192,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -221,19 +212,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -271,19 +249,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color indexed="64"/>
       </left>
@@ -334,7 +299,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
       <right style="double">
         <color indexed="64"/>
       </right>
@@ -350,37 +317,7 @@
       <left style="double">
         <color indexed="64"/>
       </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -440,74 +377,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -792,12 +705,12 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="34.6640625" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -805,178 +718,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="C1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="D2" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="21" t="s">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="D11" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sheets/Pirmdiena.xlsx
+++ b/sheets/Pirmdiena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E136E4C5-1F56-4C15-BC9C-F29C0624FCDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098AD97-681D-400A-9FBC-900B6C0BD4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="63">
   <si>
     <t>St. nr.</t>
   </si>
@@ -114,9 +114,6 @@
     <t>13:55 - 14:35</t>
   </si>
   <si>
-    <t>15:25 - 16:05</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -130,13 +127,100 @@
   </si>
   <si>
     <t>Angļu v. 1.g. / Angļu v.  2.g.</t>
+  </si>
+  <si>
+    <t>Bioloģija</t>
+  </si>
+  <si>
+    <t>22-20</t>
+  </si>
+  <si>
+    <t>Informātika</t>
+  </si>
+  <si>
+    <t>Ķīmija</t>
+  </si>
+  <si>
+    <t>23-22</t>
+  </si>
+  <si>
+    <t>Angļu  valoda</t>
+  </si>
+  <si>
+    <t>21-18</t>
+  </si>
+  <si>
+    <t>Fizika</t>
+  </si>
+  <si>
+    <t>22-24</t>
+  </si>
+  <si>
+    <t>Latviešu valoda</t>
+  </si>
+  <si>
+    <t>12-01</t>
+  </si>
+  <si>
+    <t>10.b klase</t>
+  </si>
+  <si>
+    <t>22-14</t>
+  </si>
+  <si>
+    <t>Matemātika</t>
+  </si>
+  <si>
+    <t>22-17</t>
+  </si>
+  <si>
+    <t>14:40 - 15:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veselības m. </t>
+  </si>
+  <si>
+    <t>11.a klase</t>
+  </si>
+  <si>
+    <t>Latvijas un pasaules vēsture</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>21-41</t>
+  </si>
+  <si>
+    <t>Krievu val.</t>
+  </si>
+  <si>
+    <t>22-18</t>
+  </si>
+  <si>
+    <t>11.b klase</t>
+  </si>
+  <si>
+    <t>Angļu valoda</t>
+  </si>
+  <si>
+    <t>21-16</t>
+  </si>
+  <si>
+    <t>Veselības mācība</t>
+  </si>
+  <si>
+    <t>12.a klase</t>
+  </si>
+  <si>
+    <t>12.b klase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +261,14 @@
       <family val="2"/>
       <charset val="186"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -192,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -369,6 +461,97 @@
       </left>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -377,7 +560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -409,18 +592,223 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Parasts" xfId="0" builtinId="0"/>
@@ -702,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,55 +1102,91 @@
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="14"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="60" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="5"/>
       <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>16</v>
@@ -770,13 +1194,25 @@
       <c r="D4" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>17</v>
@@ -784,13 +1220,26 @@
       <c r="D5" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="55"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>18</v>
@@ -798,13 +1247,26 @@
       <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="56"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
@@ -812,8 +1274,20 @@
       <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -824,8 +1298,20 @@
       <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E8" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
@@ -838,13 +1324,25 @@
       <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
@@ -852,25 +1350,602 @@
       <c r="D10" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E10" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="75" t="s">
         <v>29</v>
       </c>
-    </row>
+      <c r="D12" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="46" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
+      <c r="B23" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="86" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" s="87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="83" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" s="81" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="82" t="s">
+        <v>6</v>
+      </c>
+      <c r="F27" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="81" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H28" s="81" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="91" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31" s="81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="89" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="83" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="67" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="64" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/sheets/Pirmdiena.xlsx
+++ b/sheets/Pirmdiena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6098AD97-681D-400A-9FBC-900B6C0BD4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F686A-47FE-4517-B671-F74A1AE570F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
   <si>
     <t>St. nr.</t>
   </si>
@@ -220,12 +220,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,6 +270,22 @@
       <charset val="186"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -284,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -308,56 +332,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -372,442 +346,57 @@
       <top style="double">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1092,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1109,838 +698,857 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="53" t="s">
+      <c r="G1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="55"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="56"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="I6" s="15"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="28" t="s">
+      <c r="F9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="18" t="s">
+      <c r="G10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="13" t="s">
+    <row r="12" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="C12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53" t="s">
+      <c r="G12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="53" t="s">
+      <c r="E13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="60" t="s">
+      <c r="H13" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+    <row r="14" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="49" t="s">
+      <c r="F14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="41" t="s">
+      <c r="E16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H16" s="46" t="s">
+      <c r="H16" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="46" t="s">
+      <c r="H17" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="46" t="s">
+      <c r="H18" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="19" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30" t="s">
+      <c r="C19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46" t="s">
+      <c r="G19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="50" t="s">
+      <c r="F20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="47" t="s">
+      <c r="G20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+    <row r="21" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="46" t="s">
+      <c r="H21" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="46" t="s">
+      <c r="F22" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30.6" thickTop="1" x14ac:dyDescent="0.5">
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="13" t="s">
+      <c r="C23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F23" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="53" t="s">
+      <c r="G23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="53" t="s">
+      <c r="E24" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="79" t="s">
+      <c r="G24" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="60" t="s">
+      <c r="H24" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="62" t="s">
+    <row r="25" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="73" t="s">
+      <c r="B25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="89" t="s">
+      <c r="F25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="86" t="s">
+      <c r="G25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H25" s="87" t="s">
+      <c r="H25" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+    <row r="26" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="64" t="s">
+      <c r="D26" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="89" t="s">
+      <c r="F26" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="83" t="s">
+      <c r="G26" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H26" s="81" t="s">
+      <c r="H26" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+    <row r="27" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="64" t="s">
+      <c r="C27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="64" t="s">
+      <c r="D27" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="82" t="s">
+      <c r="E27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="89" t="s">
+      <c r="F27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="81" t="s">
+      <c r="G27" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="81" t="s">
+      <c r="H27" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+    <row r="28" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="64" t="s">
+      <c r="D28" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="82" t="s">
+      <c r="E28" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="91" t="s">
+      <c r="F28" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G28" s="81" t="s">
+      <c r="G28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="81" t="s">
+      <c r="H28" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+    <row r="29" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="64" t="s">
+      <c r="D29" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="91" t="s">
+      <c r="F29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="81" t="s">
+      <c r="G29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H29" s="81" t="s">
+      <c r="H29" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+    <row r="30" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B30" s="70" t="s">
+      <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64" t="s">
+      <c r="C30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="90" t="s">
+      <c r="F30" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="81" t="s">
+      <c r="G30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
+    <row r="31" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C31" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="64" t="s">
+      <c r="D31" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="89" t="s">
+      <c r="F31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="81" t="s">
+      <c r="G31" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="81" t="s">
+      <c r="H31" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
+    <row r="32" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="64" t="s">
+      <c r="D32" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="89" t="s">
+      <c r="F32" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G32" s="83" t="s">
+      <c r="G32" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H32" s="81" t="s">
+      <c r="H32" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="67" t="s">
+    <row r="33" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="71" t="s">
+      <c r="B33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="68" t="s">
+      <c r="C33" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="64" t="s">
+      <c r="D33" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="85" t="s">
+      <c r="E33" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="88" t="s">
+      <c r="F33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="84" t="s">
+      <c r="G33" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="81" t="s">
+      <c r="H33" s="8" t="s">
         <v>49</v>
       </c>
     </row>

--- a/sheets/Pirmdiena.xlsx
+++ b/sheets/Pirmdiena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4F686A-47FE-4517-B671-F74A1AE570F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4128A1-7B80-4A09-9D4B-3FFD034C3E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="63">
   <si>
     <t>St. nr.</t>
   </si>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -397,6 +397,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -679,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A5" sqref="A2:H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,120 +701,99 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="16" t="s">
+      <c r="G2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>44</v>
+        <v>34</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>36</v>
@@ -820,41 +802,41 @@
         <v>44</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="15"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>32</v>
@@ -863,102 +845,102 @@
         <v>18</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>41</v>
+        <v>10</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>43</v>
+        <v>11</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>33</v>
@@ -967,10 +949,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>43</v>
@@ -979,140 +961,142 @@
         <v>15</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="C13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
+      <c r="G13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D14" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H14" s="18" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="H16" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>39</v>
@@ -1121,10 +1105,10 @@
         <v>40</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>47</v>
@@ -1133,90 +1117,90 @@
         <v>54</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>47</v>
@@ -1225,140 +1209,140 @@
         <v>48</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="5" t="s">
+    <row r="24" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="5" t="s">
+      <c r="C24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="16" t="s">
+      <c r="G24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E25" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="17" t="s">
+      <c r="F25" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H24" s="18" t="s">
+      <c r="H25" s="18" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>47</v>
@@ -1367,12 +1351,12 @@
         <v>54</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>41</v>
@@ -1381,62 +1365,62 @@
         <v>42</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>41</v>
@@ -1445,114 +1429,140 @@
         <v>42</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>37</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>58</v>
+        <v>10</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>37</v>
+        <v>10</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E34" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G34" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/sheets/Pirmdiena.xlsx
+++ b/sheets/Pirmdiena.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4128A1-7B80-4A09-9D4B-3FFD034C3E56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE16D7B-388A-4641-9AB3-49DE351A1FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
   <si>
     <t>St. nr.</t>
   </si>
@@ -685,7 +685,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:H34"/>
+      <selection activeCell="B1" sqref="B1 C1 D1 E1 F1 G1 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,9 +701,36 @@
     <col min="10" max="10" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="2" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>

--- a/sheets/Pirmdiena.xlsx
+++ b/sheets/Pirmdiena.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\bruh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE16D7B-388A-4641-9AB3-49DE351A1FC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F7BE8D-1843-4988-A83F-6CDAA6D93F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="65">
   <si>
     <t>St. nr.</t>
   </si>
@@ -214,13 +214,19 @@
   </si>
   <si>
     <t>12.b klase</t>
+  </si>
+  <si>
+    <t>10.</t>
+  </si>
+  <si>
+    <t>15:25 - 16:05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +299,12 @@
       <charset val="186"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -308,7 +320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -351,12 +363,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -399,6 +422,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1 C1 D1 E1 F1 G1 H1"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,139 +1049,139 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="5" t="s">
+    <row r="13" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
+      <c r="G14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F15" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="17" t="s">
+      <c r="G15" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H15" s="18" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="H17" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>39</v>
@@ -1158,10 +1190,10 @@
         <v>40</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>47</v>
@@ -1170,90 +1202,90 @@
         <v>54</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>10</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>9</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>47</v>
@@ -1262,335 +1294,414 @@
         <v>48</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="F24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="5" t="s">
+    <row r="25" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="5" t="s">
+      <c r="C26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="16" t="s">
+      <c r="G26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D27" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="17" t="s">
+      <c r="G27" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H27" s="18" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>41</v>
+        <v>3</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>15</v>
+        <v>47</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>42</v>
+        <v>4</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>41</v>
+        <v>6</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/sheets/Pirmdiena.xlsx
+++ b/sheets/Pirmdiena.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gvido\Desktop\bruh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F7BE8D-1843-4988-A83F-6CDAA6D93F9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D329441-CC05-4A28-BE60-36CFF307960C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="66">
   <si>
     <t>St. nr.</t>
   </si>
@@ -220,13 +220,16 @@
   </si>
   <si>
     <t>15:25 - 16:05</t>
+  </si>
+  <si>
+    <t>Pirmdiena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,15 +277,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="186"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="186"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="24"/>
@@ -379,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -409,14 +403,13 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -717,7 +710,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,948 +753,1055 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="D2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="13" t="s">
         <v>29</v>
       </c>
+      <c r="I2" s="13" t="s">
+        <v>29</v>
+      </c>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="16" t="s">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="I4" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="I5" s="8" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="I6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="15"/>
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="I8" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="C9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="G9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="H9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="H10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="I10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="H11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="I11" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="G13" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="H14" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="I14" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="C15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="F15" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="G15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="F16" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="I16" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="E17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="F17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="F18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="H18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="H19" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="D20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="F20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="C21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="F21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="G21" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="H21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="C23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="E23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="F23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="G23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F24" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+    <row r="25" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="C25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F25" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="G25" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="5" t="s">
+    <row r="26" spans="1:9" ht="31.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="D26" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G26" s="9" t="s">
-        <v>29</v>
-      </c>
       <c r="H26" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="16" t="s">
+      <c r="I26" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="E27" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="F27" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="G27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="17" t="s">
+      <c r="H27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="I27" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="I28" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="E29" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="I29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="E30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="C31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="D31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="G31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="E32" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="G32" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="D33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="G33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="H33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="C34" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="I35" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="D36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="F36" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:9" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B37" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="C37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="F37" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="22" t="s">
-        <v>29</v>
-      </c>
       <c r="G37" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
